--- a/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Named_Cells.xlsx
+++ b/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Named_Cells.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spreadsheet\CalculationEngine\calculation-engine\engine-demo\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spreadsheet\CalculationEngine\calculation-engine\engine-tests\engine-it-graph\src\test\resources\standard_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,7 +342,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +364,7 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <f>A1+My_Age+C1</f>
+        <f>A1+B1+C1</f>
         <v>51</v>
       </c>
     </row>

--- a/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Named_Cells.xlsx
+++ b/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Named_Cells.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spreadsheet\CalculationEngine\calculation-engine\engine-tests\engine-it-graph\src\test\resources\standard_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtarasov\Desktop\sprsheet_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,7 +342,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +364,7 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <f>A1+B1+C1</f>
+        <f>A1+My_Age+C1</f>
         <v>51</v>
       </c>
     </row>
